--- a/ArtigoKrigingVsg/peaks/Power/content/results/metrics_1_38.xlsx
+++ b/ArtigoKrigingVsg/peaks/Power/content/results/metrics_1_38.xlsx
@@ -508,491 +508,491 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_38_0</t>
+          <t>model_1_38_9</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9936827330750694</v>
+        <v>0.8376150189644558</v>
       </c>
       <c r="C2" t="n">
-        <v>0.80014465253278</v>
+        <v>0.6035454782169027</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7391899216353864</v>
+        <v>0.7315636822610285</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9981568645370645</v>
+        <v>0.7614740556053938</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02629579222604194</v>
+        <v>0.3848836861102017</v>
       </c>
       <c r="G2" t="n">
-        <v>1.336433628762558</v>
+        <v>2.651093212668788</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9329025276729868</v>
+        <v>0.9601811437202994</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01430904340334386</v>
+        <v>0.07251455865760709</v>
       </c>
       <c r="J2" t="n">
-        <v>0.4395028382257329</v>
+        <v>1.231519117044111</v>
       </c>
       <c r="K2" t="n">
-        <v>0.162159773760455</v>
+        <v>0.620389946815873</v>
       </c>
       <c r="L2" t="n">
-        <v>1.40430508319556</v>
+        <v>0.7788800258239398</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1647136280968789</v>
+        <v>0.630160468315798</v>
       </c>
       <c r="N2" t="n">
-        <v>137.2766926880073</v>
+        <v>35.90962820867892</v>
       </c>
       <c r="O2" t="n">
-        <v>278.6118652312237</v>
+        <v>72.87421179690473</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_38_1</t>
+          <t>model_1_38_8</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9937715745144053</v>
+        <v>0.8375327239387278</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7999004321059998</v>
+        <v>0.6034447060254197</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7396089224089877</v>
+        <v>0.7314072051846856</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9980962526613425</v>
+        <v>0.7647597618471146</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02592598736302115</v>
+        <v>0.385078741174092</v>
       </c>
       <c r="G3" t="n">
-        <v>1.338066731880969</v>
+        <v>2.651767076777249</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9314037862008759</v>
+        <v>0.9607408531493156</v>
       </c>
       <c r="I3" t="n">
-        <v>0.01477959913725844</v>
+        <v>0.07151566715923512</v>
       </c>
       <c r="J3" t="n">
-        <v>0.4358155626568862</v>
+        <v>1.221028803872442</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1610154879600753</v>
+        <v>0.6205471305018596</v>
       </c>
       <c r="L3" t="n">
-        <v>1.398619231078058</v>
+        <v>0.7787679645123102</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1635513209390093</v>
+        <v>0.6303201274877129</v>
       </c>
       <c r="N3" t="n">
-        <v>137.3050188804587</v>
+        <v>35.90861488615225</v>
       </c>
       <c r="O3" t="n">
-        <v>278.6401914236751</v>
+        <v>72.87319847437807</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_38_2</t>
+          <t>model_1_38_7</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.993855310804666</v>
+        <v>0.8373661234767478</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7996435141627808</v>
+        <v>0.6032976764861515</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7400292570274807</v>
+        <v>0.7312338478770615</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9980278313306986</v>
+        <v>0.767281526991571</v>
       </c>
       <c r="F4" t="n">
-        <v>0.02557743281931698</v>
+        <v>0.3854736163620903</v>
       </c>
       <c r="G4" t="n">
-        <v>1.339784743350273</v>
+        <v>2.652750263983344</v>
       </c>
       <c r="H4" t="n">
-        <v>0.929900273642928</v>
+        <v>0.9613609421868531</v>
       </c>
       <c r="I4" t="n">
-        <v>0.01531078298651228</v>
+        <v>0.07074902231079935</v>
       </c>
       <c r="J4" t="n">
-        <v>0.4321587603156663</v>
+        <v>1.212325217390335</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1599294620115912</v>
+        <v>0.6208652159382826</v>
       </c>
       <c r="L4" t="n">
-        <v>1.393260108501373</v>
+        <v>0.7785411043087629</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1624481911674643</v>
+        <v>0.6306432224517908</v>
       </c>
       <c r="N4" t="n">
-        <v>137.3320896935371</v>
+        <v>35.90656505673468</v>
       </c>
       <c r="O4" t="n">
-        <v>278.6672622367535</v>
+        <v>72.8711486449605</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_38_3</t>
+          <t>model_1_38_6</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9939342054776724</v>
+        <v>0.8371290419735444</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7993731007425797</v>
+        <v>0.6031096242252965</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7404403483904929</v>
+        <v>0.7310500034300965</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9979523275928224</v>
+        <v>0.7691745036348333</v>
       </c>
       <c r="F5" t="n">
-        <v>0.02524903163669038</v>
+        <v>0.3860355451949143</v>
       </c>
       <c r="G5" t="n">
-        <v>1.341592999136296</v>
+        <v>2.654007770317583</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9284298236738798</v>
+        <v>0.9620185431137329</v>
       </c>
       <c r="I5" t="n">
-        <v>0.01589695057110445</v>
+        <v>0.0701735362093452</v>
       </c>
       <c r="J5" t="n">
-        <v>0.4285826514252393</v>
+        <v>1.205148715023619</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1588994387551145</v>
+        <v>0.6213175880295956</v>
       </c>
       <c r="L5" t="n">
-        <v>1.388210849428965</v>
+        <v>0.7782182699214222</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1614019460743436</v>
+        <v>0.6311027189513357</v>
       </c>
       <c r="N5" t="n">
-        <v>137.3579349500367</v>
+        <v>35.90365165551955</v>
       </c>
       <c r="O5" t="n">
-        <v>278.6931074932531</v>
+        <v>72.86823524374537</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_38_4</t>
+          <t>model_1_38_5</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9940095598518935</v>
+        <v>0.8368319466337678</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7990918142592598</v>
+        <v>0.6028840895819255</v>
       </c>
       <c r="D6" t="n">
-        <v>0.740847553082352</v>
+        <v>0.7308595723813439</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9978726918366411</v>
+        <v>0.770536574041138</v>
       </c>
       <c r="F6" t="n">
-        <v>0.02493536704227185</v>
+        <v>0.3867397183811917</v>
       </c>
       <c r="G6" t="n">
-        <v>1.343473963145462</v>
+        <v>2.655515921516296</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9269732761021847</v>
+        <v>0.9626997039332943</v>
       </c>
       <c r="I6" t="n">
-        <v>0.01651519676872331</v>
+        <v>0.06975945155023421</v>
       </c>
       <c r="J6" t="n">
-        <v>0.4250160505494082</v>
+        <v>1.199314690310227</v>
       </c>
       <c r="K6" t="n">
-        <v>0.157909363377451</v>
+        <v>0.6218840071759296</v>
       </c>
       <c r="L6" t="n">
-        <v>1.383388169478813</v>
+        <v>0.7778137145651306</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1603962779991941</v>
+        <v>0.6316780586330132</v>
       </c>
       <c r="N6" t="n">
-        <v>137.3829362402592</v>
+        <v>35.90000674909271</v>
       </c>
       <c r="O6" t="n">
-        <v>278.7181087834756</v>
+        <v>72.86459033731853</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_38_5</t>
+          <t>model_1_38_4</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9940799904077779</v>
+        <v>0.8364918099720358</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7988031711688314</v>
+        <v>0.6026350228018147</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7412369567502777</v>
+        <v>0.7306691662582958</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9977861554746992</v>
+        <v>0.7715425692754156</v>
       </c>
       <c r="F7" t="n">
-        <v>0.02464219797313014</v>
+        <v>0.3875459077917754</v>
       </c>
       <c r="G7" t="n">
-        <v>1.345404120820236</v>
+        <v>2.657181432221744</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9255804017609364</v>
+        <v>0.9633807755950559</v>
       </c>
       <c r="I7" t="n">
-        <v>0.01718701529964284</v>
+        <v>0.06945361773156743</v>
       </c>
       <c r="J7" t="n">
-        <v>0.4214927171123269</v>
+        <v>1.19419242227139</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1569783359993669</v>
+        <v>0.6225318528330702</v>
       </c>
       <c r="L7" t="n">
-        <v>1.378880613902211</v>
+        <v>0.7773505497491551</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1594505878705912</v>
+        <v>0.6323361072116456</v>
       </c>
       <c r="N7" t="n">
-        <v>137.4065898816805</v>
+        <v>35.89584193097049</v>
       </c>
       <c r="O7" t="n">
-        <v>278.7417624248969</v>
+        <v>72.86042551919631</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_38_6</t>
+          <t>model_1_38_3</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9941462218273371</v>
+        <v>0.8361077754930524</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7985047254253673</v>
+        <v>0.602356324654571</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7416373119276842</v>
+        <v>0.7304768967519641</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9976931134990685</v>
+        <v>0.7721699590524722</v>
       </c>
       <c r="F8" t="n">
-        <v>0.02436650792104586</v>
+        <v>0.3884561434855072</v>
       </c>
       <c r="G8" t="n">
-        <v>1.347399828880997</v>
+        <v>2.659045088015649</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9241483545052804</v>
+        <v>0.9640685124707777</v>
       </c>
       <c r="I8" t="n">
-        <v>0.01790933967264997</v>
+        <v>0.0692628842123898</v>
       </c>
       <c r="J8" t="n">
-        <v>0.4180031856201368</v>
+        <v>1.190026875478961</v>
       </c>
       <c r="K8" t="n">
-        <v>0.156097751172289</v>
+        <v>0.6232624996624674</v>
       </c>
       <c r="L8" t="n">
-        <v>1.374641803050423</v>
+        <v>0.7768276091820288</v>
       </c>
       <c r="M8" t="n">
-        <v>0.1585561347127487</v>
+        <v>0.6330782609982269</v>
       </c>
       <c r="N8" t="n">
-        <v>137.4290914315678</v>
+        <v>35.89115000465564</v>
       </c>
       <c r="O8" t="n">
-        <v>278.7642639747842</v>
+        <v>72.85573359288146</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_38_7</t>
+          <t>model_1_38_2</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9942093241897211</v>
+        <v>0.8356870398006062</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7982007717126437</v>
+        <v>0.6020523623572559</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7420297357016681</v>
+        <v>0.730284037440077</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9975966462019537</v>
+        <v>0.772486827044216</v>
       </c>
       <c r="F9" t="n">
-        <v>0.02410384265298924</v>
+        <v>0.38945336812509</v>
       </c>
       <c r="G9" t="n">
-        <v>1.349432368757558</v>
+        <v>2.661077685297413</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9227446774197776</v>
+        <v>0.9647583590467732</v>
       </c>
       <c r="I9" t="n">
-        <v>0.01865825627111909</v>
+        <v>0.06916655279388374</v>
       </c>
       <c r="J9" t="n">
-        <v>0.4145099451457869</v>
+        <v>1.186618819073104</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1552541228212289</v>
+        <v>0.6240619906107806</v>
       </c>
       <c r="L9" t="n">
-        <v>1.370603251857851</v>
+        <v>0.7762546924944425</v>
       </c>
       <c r="M9" t="n">
-        <v>0.1576992200584784</v>
+        <v>0.6338903431297783</v>
       </c>
       <c r="N9" t="n">
-        <v>137.4507680100272</v>
+        <v>35.88602228647783</v>
       </c>
       <c r="O9" t="n">
-        <v>278.7859405532436</v>
+        <v>72.85060587470365</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_38_8</t>
+          <t>model_1_38_1</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9942679252833613</v>
+        <v>0.8352355255155026</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7978834362812894</v>
+        <v>0.6017277167405377</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7424131409661338</v>
+        <v>0.7300912625133222</v>
       </c>
       <c r="E10" t="n">
-        <v>0.997493679540329</v>
+        <v>0.772548536219857</v>
       </c>
       <c r="F10" t="n">
-        <v>0.02385991403624868</v>
+        <v>0.3905235439583097</v>
       </c>
       <c r="G10" t="n">
-        <v>1.351554392248219</v>
+        <v>2.663248592031263</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9213732590198986</v>
+        <v>0.965447903782042</v>
       </c>
       <c r="I10" t="n">
-        <v>0.01945763019664628</v>
+        <v>0.06914779251332777</v>
       </c>
       <c r="J10" t="n">
-        <v>0.4110974014538771</v>
+        <v>1.183767078477105</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1544665466573545</v>
+        <v>0.6249188298957792</v>
       </c>
       <c r="L10" t="n">
-        <v>1.366852781864878</v>
+        <v>0.7756398645317483</v>
       </c>
       <c r="M10" t="n">
-        <v>0.1568992403573103</v>
+        <v>0.6347606767769906</v>
       </c>
       <c r="N10" t="n">
-        <v>137.4711109303168</v>
+        <v>35.88053403938643</v>
       </c>
       <c r="O10" t="n">
-        <v>278.8062834735332</v>
+        <v>72.84511762761225</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_1_38_9</t>
+          <t>model_1_38_0</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9943239984328286</v>
+        <v>0.834757222846426</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7975534697166994</v>
+        <v>0.6013853281315691</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7427841078715517</v>
+        <v>0.7298986729118248</v>
       </c>
       <c r="E11" t="n">
-        <v>0.997388525161419</v>
+        <v>0.7723941457669076</v>
       </c>
       <c r="F11" t="n">
-        <v>0.02362650805461538</v>
+        <v>0.3916572134219299</v>
       </c>
       <c r="G11" t="n">
-        <v>1.353760880184989</v>
+        <v>2.665538146235991</v>
       </c>
       <c r="H11" t="n">
-        <v>0.9200463319091156</v>
+        <v>0.9661367856196119</v>
       </c>
       <c r="I11" t="n">
-        <v>0.02027398830061242</v>
+        <v>0.06919472894024346</v>
       </c>
       <c r="J11" t="n">
-        <v>0.4077249788719607</v>
+        <v>1.18132368097988</v>
       </c>
       <c r="K11" t="n">
-        <v>0.1537091671131406</v>
+        <v>0.6258252259392633</v>
       </c>
       <c r="L11" t="n">
-        <v>1.36326410029897</v>
+        <v>0.7749885587696013</v>
       </c>
       <c r="M11" t="n">
-        <v>0.1561299328423768</v>
+        <v>0.6356813476520959</v>
       </c>
       <c r="N11" t="n">
-        <v>137.4907719492799</v>
+        <v>35.87473655461454</v>
       </c>
       <c r="O11" t="n">
-        <v>278.8259444924964</v>
+        <v>72.83932014284036</v>
       </c>
     </row>
   </sheetData>
